--- a/teaching/traditional_assets/database/data/belgium/belgium_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/belgium/belgium_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.05515</v>
+        <v>-0.005105</v>
       </c>
       <c r="E2">
-        <v>0.2385</v>
+        <v>-0.00425</v>
       </c>
       <c r="F2">
-        <v>-0.0133</v>
+        <v>0.0268</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -612,85 +612,85 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4957.3</v>
+        <v>4096</v>
       </c>
       <c r="L2">
-        <v>0.2991226588144429</v>
+        <v>0.2592487104022279</v>
       </c>
       <c r="M2">
-        <v>4020.1</v>
+        <v>3681.4</v>
       </c>
       <c r="N2">
-        <v>0.0829913294797688</v>
+        <v>0.08372640973040342</v>
       </c>
       <c r="O2">
-        <v>0.8109454743509572</v>
+        <v>0.8987792968749999</v>
       </c>
       <c r="P2">
-        <v>3824.9</v>
+        <v>590.7</v>
       </c>
       <c r="Q2">
-        <v>0.0789616019818332</v>
+        <v>0.01343434297488708</v>
       </c>
       <c r="R2">
-        <v>0.771569200976338</v>
+        <v>0.1442138671875</v>
       </c>
       <c r="S2">
-        <v>195.2</v>
+        <v>3090.7</v>
       </c>
       <c r="T2">
-        <v>0.04855600606950077</v>
+        <v>0.8395447384147335</v>
       </c>
       <c r="U2">
-        <v>46021.89999999999</v>
+        <v>73010.8</v>
       </c>
       <c r="V2">
-        <v>0.9500805119735755</v>
+        <v>1.660491159761107</v>
       </c>
       <c r="W2">
-        <v>0.1010736143203401</v>
+        <v>0.08848224394917192</v>
       </c>
       <c r="X2">
-        <v>0.09294930922869735</v>
+        <v>0.1078940081287463</v>
       </c>
       <c r="Y2">
-        <v>0.008124305091642747</v>
+        <v>-0.01941176417957434</v>
       </c>
       <c r="Z2">
-        <v>0.1824368431539399</v>
+        <v>0.1333669293571848</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0417084246811983</v>
+        <v>0.03620400601274515</v>
       </c>
       <c r="AC2">
-        <v>-0.0417084246811983</v>
+        <v>-0.03620400601274515</v>
       </c>
       <c r="AD2">
-        <v>119025</v>
+        <v>138835.7</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>119025</v>
+        <v>138835.7</v>
       </c>
       <c r="AG2">
-        <v>73003.10000000001</v>
+        <v>65824.90000000001</v>
       </c>
       <c r="AH2">
-        <v>0.71074552891649</v>
+        <v>0.7594738877635252</v>
       </c>
       <c r="AI2">
-        <v>0.6955551672692571</v>
+        <v>0.7092689052276229</v>
       </c>
       <c r="AJ2">
-        <v>0.6011300765543699</v>
+        <v>0.5995293016121966</v>
       </c>
       <c r="AK2">
-        <v>0.583556087750319</v>
+        <v>0.5363216386657325</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0509</v>
+        <v>0.009389999999999999</v>
       </c>
       <c r="E3">
-        <v>0.284</v>
+        <v>0.057</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,85 +734,82 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2330.5</v>
+        <v>2212.5</v>
       </c>
       <c r="L3">
-        <v>0.2681725602108098</v>
+        <v>0.26482099895867</v>
       </c>
       <c r="M3">
-        <v>2161</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.1261883072898419</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.9272688264320961</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>2161</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.1261883072898419</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.9272688264320961</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>37562.6</v>
+        <v>39865</v>
       </c>
       <c r="V3">
-        <v>2.193410879872935</v>
+        <v>2.694436746804729</v>
       </c>
       <c r="W3">
-        <v>0.08486890021849963</v>
+        <v>0.08876665503171527</v>
       </c>
       <c r="X3">
-        <v>0.1265093964806363</v>
+        <v>0.1573012779342385</v>
       </c>
       <c r="Y3">
-        <v>-0.0416404962621367</v>
+        <v>-0.06853462290252324</v>
       </c>
       <c r="Z3">
-        <v>0.134791638553731</v>
+        <v>0.1135704964384753</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04097561011297617</v>
+        <v>0.03586778251236599</v>
       </c>
       <c r="AC3">
-        <v>-0.04097561011297617</v>
+        <v>-0.03586778251236599</v>
       </c>
       <c r="AD3">
-        <v>87018.7</v>
+        <v>100445.6</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>87018.7</v>
+        <v>100445.6</v>
       </c>
       <c r="AG3">
-        <v>49456.1</v>
+        <v>60580.60000000001</v>
       </c>
       <c r="AH3">
-        <v>0.8355621404614193</v>
+        <v>0.8716141578207043</v>
       </c>
       <c r="AI3">
-        <v>0.7389457934147753</v>
+        <v>0.7561886722567105</v>
       </c>
       <c r="AJ3">
-        <v>0.7427926459831814</v>
+        <v>0.8037131231600552</v>
       </c>
       <c r="AK3">
-        <v>0.6166749794259209</v>
+        <v>0.6516397322043233</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -838,13 +835,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0594</v>
+        <v>-0.0196</v>
       </c>
       <c r="E4">
-        <v>0.193</v>
+        <v>-0.0655</v>
       </c>
       <c r="F4">
-        <v>-0.0133</v>
+        <v>0.0268</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -859,85 +856,85 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2626.8</v>
+        <v>1883.5</v>
       </c>
       <c r="L4">
-        <v>0.333244529019981</v>
+        <v>0.2529953793251666</v>
       </c>
       <c r="M4">
-        <v>1859.1</v>
+        <v>3681.4</v>
       </c>
       <c r="N4">
-        <v>0.05936809431961884</v>
+        <v>0.1261872688446259</v>
       </c>
       <c r="O4">
-        <v>0.7077432617633622</v>
+        <v>1.954552694451818</v>
       </c>
       <c r="P4">
-        <v>1663.9</v>
+        <v>590.7</v>
       </c>
       <c r="Q4">
-        <v>0.05313462005186047</v>
+        <v>0.0202474112311948</v>
       </c>
       <c r="R4">
-        <v>0.6334323130805543</v>
+        <v>0.3136182638704539</v>
       </c>
       <c r="S4">
-        <v>195.2</v>
+        <v>3090.7</v>
       </c>
       <c r="T4">
-        <v>0.1049970415792588</v>
+        <v>0.8395447384147335</v>
       </c>
       <c r="U4">
-        <v>8459.299999999999</v>
+        <v>33145.8</v>
       </c>
       <c r="V4">
-        <v>0.2701374429981989</v>
+        <v>1.136137875718531</v>
       </c>
       <c r="W4">
-        <v>0.1172783284221806</v>
+        <v>0.08819783286662858</v>
       </c>
       <c r="X4">
-        <v>0.05938922197675836</v>
+        <v>0.05848673832325402</v>
       </c>
       <c r="Y4">
-        <v>0.05788910644542219</v>
+        <v>0.02971109454337456</v>
       </c>
       <c r="Z4">
-        <v>0.2989282951321997</v>
+        <v>0.1657996009122007</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04244123924942043</v>
+        <v>0.03654022951312431</v>
       </c>
       <c r="AC4">
-        <v>-0.04244123924942043</v>
+        <v>-0.03654022951312431</v>
       </c>
       <c r="AD4">
-        <v>32006.3</v>
+        <v>38390.1</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>32006.3</v>
+        <v>38390.1</v>
       </c>
       <c r="AG4">
-        <v>23547</v>
+        <v>5244.299999999996</v>
       </c>
       <c r="AH4">
-        <v>0.5054602652196504</v>
+        <v>0.568201799177671</v>
       </c>
       <c r="AI4">
-        <v>0.5997991068500441</v>
+        <v>0.6102054570250535</v>
       </c>
       <c r="AJ4">
-        <v>0.429205749720206</v>
+        <v>0.1523690816539989</v>
       </c>
       <c r="AK4">
-        <v>0.5244040407639681</v>
+        <v>0.1761747671965491</v>
       </c>
       <c r="AL4">
         <v>0</v>
